--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43639,6 +43639,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43676,6 +43676,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43713,6 +43713,43 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43750,6 +43750,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43787,6 +43787,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43824,6 +43824,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43861,6 +43861,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43898,6 +43898,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43935,6 +43935,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43972,6 +43972,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44007,6 +44007,43 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44044,6 +44044,41 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44079,6 +44079,78 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44151,6 +44151,80 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44225,6 +44225,43 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44262,6 +44262,43 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44299,6 +44299,43 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44336,6 +44336,43 @@
         </is>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44373,6 +44373,76 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44443,6 +44443,43 @@
         <v>1900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44480,6 +44480,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2274"/>
+  <dimension ref="A1:I2275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80880,6 +80880,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2275">
+      <c r="A2275" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D2275" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E2275" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2275" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2275" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2275" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2275" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2275"/>
+  <dimension ref="A1:I2276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80917,6 +80917,43 @@
         </is>
       </c>
     </row>
+    <row r="2276">
+      <c r="A2276" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D2276" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E2276" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2276" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2276" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2276" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2276" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2276"/>
+  <dimension ref="A1:I2277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80954,6 +80954,43 @@
         </is>
       </c>
     </row>
+    <row r="2277">
+      <c r="A2277" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2277" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D2277" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E2277" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2277" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2277" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2277" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2277" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2277"/>
+  <dimension ref="A1:I2278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80991,6 +80991,43 @@
         </is>
       </c>
     </row>
+    <row r="2278">
+      <c r="A2278" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2278" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D2278" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E2278" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2278" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2278" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2278" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2278" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2278"/>
+  <dimension ref="A1:I2279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81028,6 +81028,43 @@
         </is>
       </c>
     </row>
+    <row r="2279">
+      <c r="A2279" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D2279" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E2279" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2279" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2279" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2279" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2279" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2279"/>
+  <dimension ref="A1:I2280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81065,6 +81065,43 @@
         </is>
       </c>
     </row>
+    <row r="2280">
+      <c r="A2280" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2280" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D2280" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E2280" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2280" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2280" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2280" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2280" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2280"/>
+  <dimension ref="A1:I2281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81102,6 +81102,43 @@
         </is>
       </c>
     </row>
+    <row r="2281">
+      <c r="A2281" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D2281" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E2281" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2281" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2281" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2281" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2281" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2281"/>
+  <dimension ref="A1:I2282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81139,6 +81139,43 @@
         </is>
       </c>
     </row>
+    <row r="2282">
+      <c r="A2282" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D2282" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E2282" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2282" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2282" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2282" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2282" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2282"/>
+  <dimension ref="A1:I2283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81176,6 +81176,41 @@
         </is>
       </c>
     </row>
+    <row r="2283">
+      <c r="A2283" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D2283" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E2283" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2283" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2283" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2283" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2283" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2283"/>
+  <dimension ref="A1:I2284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81211,6 +81211,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2284">
+      <c r="A2284" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D2284" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E2284" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F2284" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2284" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2284" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2284" t="n">
+        <v>1900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2284"/>
+  <dimension ref="A1:I2285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81246,6 +81246,41 @@
         <v>1900</v>
       </c>
     </row>
+    <row r="2285">
+      <c r="A2285" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D2285" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E2285" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2285" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2285" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2285" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2285"/>
+  <dimension ref="A1:I2286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81281,6 +81281,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2286">
+      <c r="A2286" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E2286" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2286" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2286" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2286" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2286"/>
+  <dimension ref="A1:I2287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81316,6 +81316,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2287">
+      <c r="A2287" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E2287" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2287" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2287" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2287" t="n">
+        <v>22500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2287"/>
+  <dimension ref="A1:I2288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81351,6 +81351,41 @@
         <v>22500</v>
       </c>
     </row>
+    <row r="2288">
+      <c r="A2288" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E2288" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2288" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2288" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2288" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7157.xlsx
+++ b/data/7157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2288"/>
+  <dimension ref="A1:I2289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81386,6 +81386,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="2289">
+      <c r="A2289" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="D2289" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="E2289" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2289" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2289" t="n">
+        <v>32600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
